--- a/Janus/scripts/docs/excel-cod.xlsx
+++ b/Janus/scripts/docs/excel-cod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmunoz\trabajo\proyectos\LKS\FP\carga-excel-python\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3949206E-1C4F-44D5-BE7C-45E2F452C269}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9601D3BD-4FB5-4CA7-975C-0585172F9291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="3" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="3" activeTab="5" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
   </bookViews>
   <sheets>
     <sheet name="EX00" sheetId="1" r:id="rId1"/>
@@ -6480,7 +6480,7 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -8557,7 +8557,7 @@
   </sheetPr>
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -10762,7 +10762,7 @@
   </sheetPr>
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -11956,8 +11956,8 @@
   </sheetPr>
   <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:W9"/>
+    <sheetView topLeftCell="D15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -18399,7 +18399,7 @@
   </sheetPr>
   <dimension ref="A1:CK15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -20637,7 +20637,7 @@
   </sheetPr>
   <dimension ref="A1:CK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -24686,7 +24686,7 @@
   </sheetPr>
   <dimension ref="A1:CK9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -25888,8 +25888,8 @@
   </sheetPr>
   <dimension ref="A1:CI7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -25901,7 +25901,7 @@
     <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="77" customFormat="1" ht="55.15">
+    <row r="1" spans="1:87" s="77" customFormat="1" ht="53.25">
       <c r="A1" s="64" t="s">
         <v>529</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>532</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>533</v>
@@ -26582,7 +26582,7 @@
   </sheetPr>
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -27381,7 +27381,7 @@
   </sheetPr>
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S7"/>
     </sheetView>
   </sheetViews>
@@ -28032,7 +28032,7 @@
   </sheetPr>
   <dimension ref="A1:CK44"/>
   <sheetViews>
-    <sheetView topLeftCell="H26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -34268,12 +34268,16 @@
   </sheetData>
   <autoFilter ref="A1:CK1" xr:uid="{81481555-CC8D-496A-8B62-D9F1569CF07D}"/>
   <mergeCells count="28">
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q16:R16"/>
@@ -34286,16 +34290,12 @@
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:R1">
     <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">

--- a/Janus/scripts/docs/excel-cod.xlsx
+++ b/Janus/scripts/docs/excel-cod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmunoz\trabajo\proyectos\LKS\FP\carga-excel-python\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9601D3BD-4FB5-4CA7-975C-0585172F9291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3949206E-1C4F-44D5-BE7C-45E2F452C269}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="3" activeTab="5" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="3" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
   </bookViews>
   <sheets>
     <sheet name="EX00" sheetId="1" r:id="rId1"/>
@@ -6480,7 +6480,7 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -8557,7 +8557,7 @@
   </sheetPr>
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -10762,7 +10762,7 @@
   </sheetPr>
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -11956,8 +11956,8 @@
   </sheetPr>
   <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -18399,7 +18399,7 @@
   </sheetPr>
   <dimension ref="A1:CK15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -20637,7 +20637,7 @@
   </sheetPr>
   <dimension ref="A1:CK30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -24686,7 +24686,7 @@
   </sheetPr>
   <dimension ref="A1:CK9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -25888,8 +25888,8 @@
   </sheetPr>
   <dimension ref="A1:CI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -25901,7 +25901,7 @@
     <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="77" customFormat="1" ht="53.25">
+    <row r="1" spans="1:87" s="77" customFormat="1" ht="55.15">
       <c r="A1" s="64" t="s">
         <v>529</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>532</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>533</v>
@@ -26582,7 +26582,7 @@
   </sheetPr>
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -27381,7 +27381,7 @@
   </sheetPr>
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S7"/>
     </sheetView>
   </sheetViews>
@@ -28032,7 +28032,7 @@
   </sheetPr>
   <dimension ref="A1:CK44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -34268,16 +34268,12 @@
   </sheetData>
   <autoFilter ref="A1:CK1" xr:uid="{81481555-CC8D-496A-8B62-D9F1569CF07D}"/>
   <mergeCells count="28">
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q16:R16"/>
@@ -34290,12 +34286,16 @@
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:R1">
     <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">
